--- a/docs/samples/6/Financial_Report.xlsx
+++ b/docs/samples/6/Financial_Report.xlsx
@@ -95,7 +95,7 @@
     <t>Audit Opinion</t>
   </si>
   <si>
-    <t>unqualified</t>
+    <t>unmodified</t>
   </si>
   <si>
     <t xml:space="preserve"> - Accrual, Basis of Accounting [Member] $ in Thousands</t>
@@ -1169,139 +1169,139 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Governmental Funds [Member] | Primary Government Activities [Member]</t>
+  </si>
+  <si>
+    <t>cafr_DeferredInflowsOfResources</t>
+  </si>
+  <si>
+    <t>cafr_Assets</t>
+  </si>
+  <si>
+    <t>cafr_Liabilities</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Restricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>cafr_Investments</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>cafr_OtherLiabilities</t>
+  </si>
+  <si>
+    <t>cafr_ReceivablesNet</t>
+  </si>
+  <si>
+    <t>cafr_UnearnedRevenue</t>
+  </si>
+  <si>
+    <t>cafr_OtherAssets</t>
+  </si>
+  <si>
+    <t>cafr_CashAndCashEquivalents</t>
+  </si>
+  <si>
+    <t>cafr_AccountsPayable</t>
+  </si>
+  <si>
+    <t>cafr_Inventory</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Restricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Restricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Restricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>cafr_DueToRelatedParty</t>
+  </si>
+  <si>
+    <t>cafr_DueFromRelated</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Economic Development and Assistance [Member]</t>
+  </si>
+  <si>
+    <t>cafr_ChargesForServices</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Conservation [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Education [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | General Government [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Public Safety [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Transportation [Member]</t>
+  </si>
+  <si>
+    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Health and Welfare [Member]</t>
+  </si>
+  <si>
     <t>Business Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Unemployment Programs [Member]</t>
   </si>
   <si>
-    <t>cafr_ChargesForServices</t>
+    <t>Business Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Higher Education [Member]</t>
+  </si>
+  <si>
+    <t>Business Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Other Business Type Activities [Member]</t>
   </si>
   <si>
     <t>Business Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | State Health Benefit Plan [Member]</t>
-  </si>
-  <si>
-    <t>Business Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Other Business Type Activities [Member]</t>
-  </si>
-  <si>
-    <t>Business Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Higher Education [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member]</t>
-  </si>
-  <si>
-    <t>cafr_Assets</t>
-  </si>
-  <si>
-    <t>cafr_DeferredInflowsOfResources</t>
-  </si>
-  <si>
-    <t>cafr_Liabilities</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Restricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>cafr_Investments</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>cafr_OtherLiabilities</t>
-  </si>
-  <si>
-    <t>cafr_CashAndCashEquivalents</t>
-  </si>
-  <si>
-    <t>cafr_ReceivablesNet</t>
-  </si>
-  <si>
-    <t>cafr_UnearnedRevenue</t>
-  </si>
-  <si>
-    <t>cafr_OtherAssets</t>
-  </si>
-  <si>
-    <t>cafr_AccountsPayable</t>
-  </si>
-  <si>
-    <t>cafr_Inventory</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Restricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Governmental Funds [Member] | Primary Government Activities [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Restricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Restricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>cafr_DueToRelatedParty</t>
-  </si>
-  <si>
-    <t>cafr_DueFromRelated</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Component Units [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Other Governmental Funds [Member] | Primary Government Activities [Member] | Nonmajor [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | General Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Governmental Funds [Member] | Primary Government Activities [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Modified Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Debt Service Fund [Member] | Primary Government Activities [Member] | Major [Member] | Related Party [Member] | Unrestricted Asset or Liability [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Education [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | General Government [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Public Safety [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Health and Welfare [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Conservation [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Economic Development and Assistance [Member]</t>
-  </si>
-  <si>
-    <t>Governmental Type Activity [Member] | Accrual, Basis of Accounting [Member] | Primary Government Activities [Member] | Transportation [Member]</t>
   </si>
 </sst>
 </file>
@@ -8618,7 +8618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8628,7 +8628,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="80"/>
     <col customWidth="1" max="2" min="2" width="32"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8649,183 +8649,195 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>378</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>709830000</v>
+        <v>1835310000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>379</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>15380016000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>2188034000</v>
+        <v>4768464000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30181000</v>
+        <v>219510000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3552863000</v>
+        <v>3326002000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>382</v>
+        <v>72</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>63130000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>365474000</v>
+        <v>5403655000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C12" s="6" t="n">
-        <v>0</v>
+        <v>106397000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>44421000</v>
+        <v>70011000</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>386</v>
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>2617733000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80357000</v>
+        <v>2818450000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>388</v>
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>39681000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C17" s="6" t="n">
-        <v>95109000</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12437000</v>
+        <v>14145000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0</v>
+        <v>1228682000</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>107882000</v>
+        <v>135340000</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C21" s="6" t="n">
-        <v>22009000</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C22" s="6" t="n">
         <v>0</v>
@@ -8833,429 +8845,429 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="C23" s="6" t="n">
-        <v>159000</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>3199000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0</v>
+        <v>24219000</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>396</v>
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13785860000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C28" s="6" t="n">
-        <v>1821165000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C29" s="6" t="n">
-        <v>4588703000</v>
+        <v>686338000</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>397</v>
+        <v>70</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C30" s="6" t="n">
+        <v>64373000</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C31" s="6" t="n">
-        <v>139153000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3524829000</v>
+        <v>1821165000</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2688549000</v>
+        <v>13785860000</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>38911000</v>
+        <v>4588703000</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C36" s="6" t="n">
-        <v>1823513000</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>5381646000</v>
+        <v>139153000</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C38" s="6" t="n">
-        <v>106397000</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>69852000</v>
+        <v>3524829000</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>2750878000</v>
+        <v>38911000</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C41" s="6" t="n">
-        <v>39681000</v>
+        <v>5381646000</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>399</v>
+        <v>71</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" s="6" t="n">
+        <v>106397000</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C43" s="6" t="n">
-        <v>15380016000</v>
+        <v>69852000</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C44" s="6" t="n">
-        <v>1835310000</v>
+        <v>1823513000</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>4768464000</v>
+        <v>2750878000</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>400</v>
+        <v>34</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C46" s="6" t="n">
+        <v>39681000</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" s="6" t="n">
-        <v>219510000</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>401</v>
+        <v>69</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C48" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C49" s="6" t="n">
-        <v>3326002000</v>
+        <v>365474000</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C50" s="6" t="n">
-        <v>3537266000</v>
+        <v>44421000</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C51" s="6" t="n">
-        <v>63130000</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C52" s="6" t="n">
-        <v>2617733000</v>
+        <v>80357000</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C53" s="6" t="n">
-        <v>5403655000</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C54" s="6" t="n">
-        <v>106397000</v>
+        <v>12437000</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C55" s="6" t="n">
-        <v>70011000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>2818450000</v>
+        <v>22009000</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C57" s="6" t="n">
-        <v>39681000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>402</v>
+        <v>35</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C58" s="6" t="n">
+        <v>159000</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C59" s="6" t="n">
-        <v>1228682000</v>
+        <v>107882000</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C60" s="6" t="n">
-        <v>14145000</v>
+        <v>3199000</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="C61" s="6" t="n">
-        <v>135340000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C63" s="6" t="n">
-        <v>0</v>
+        <v>104422000</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>404</v>
+        <v>37</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C64" s="6" t="n">
+        <v>107749000</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C65" s="6" t="n">
-        <v>542344000</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C66" s="6" t="n">
         <v>0</v>
@@ -9263,84 +9275,72 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C67" s="6" t="n">
-        <v>24219000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="C68" s="6" t="n">
-        <v>686338000</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C69" s="6" t="n">
-        <v>0</v>
+        <v>104412000</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C70" s="6" t="n">
-        <v>0</v>
+        <v>107523000</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C71" s="6" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C72" s="6" t="n">
-        <v>64373000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C73" s="6" t="n">
-        <v>0</v>
+        <v>226000</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -9348,10 +9348,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C75" s="6" t="n">
-        <v>10000</v>
+        <v>548224000</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -9359,15 +9359,15 @@
         <v>37</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C76" s="6" t="n">
-        <v>226000</v>
+        <v>58409000</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -9375,10 +9375,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C78" s="6" t="n">
-        <v>104412000</v>
+        <v>24197000</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -9386,15 +9386,15 @@
         <v>37</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C79" s="6" t="n">
-        <v>107523000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -9402,10 +9402,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C81" s="6" t="n">
-        <v>104422000</v>
+        <v>513379000</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -9413,15 +9413,15 @@
         <v>37</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C82" s="6" t="n">
-        <v>107749000</v>
+        <v>11114000</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -9429,10 +9429,10 @@
         <v>74</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C84" s="6" t="n">
-        <v>0</v>
+        <v>10648000</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -9440,123 +9440,111 @@
         <v>37</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C85" s="6" t="n">
-        <v>0</v>
+        <v>47295000</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C87" s="6" t="n">
-        <v>10648000</v>
+        <v>36380000</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C88" s="6" t="n">
-        <v>47295000</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
-        <v>412</v>
+        <v>128</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C89" s="6" t="n">
+        <v>5162000</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C90" s="6" t="n">
-        <v>513379000</v>
+        <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C91" s="6" t="n">
-        <v>11114000</v>
+        <v>8622000</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C93" s="6" t="n">
-        <v>548224000</v>
+        <v>698096000</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C94" s="6" t="n">
-        <v>58409000</v>
+        <v>415</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
-        <v>414</v>
+        <v>128</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" s="6" t="n">
+        <v>186972000</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C96" s="6" t="n">
-        <v>24197000</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C97" s="6" t="n">
-        <v>0</v>
+        <v>33146000</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9564,15 +9552,15 @@
         <v>128</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="C99" s="6" t="n">
-        <v>8622000</v>
+        <v>292832000</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9580,15 +9568,15 @@
         <v>128</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="C101" s="6" t="n">
-        <v>698096000</v>
+        <v>709830000</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9596,15 +9584,15 @@
         <v>128</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="C103" s="6" t="n">
-        <v>186972000</v>
+        <v>3552863000</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9612,15 +9600,15 @@
         <v>128</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="C105" s="6" t="n">
-        <v>292832000</v>
+        <v>30181000</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9628,42 +9616,10 @@
         <v>128</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C107" s="6" t="n">
-        <v>5162000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C109" s="6" t="n">
-        <v>36380000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="C111" s="5" t="n">
-        <v>33146000</v>
+        <v>411</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>2188034000</v>
       </c>
     </row>
   </sheetData>
